--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Kremen2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +537,7 @@
         <v>0.03046</v>
       </c>
       <c r="H2">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,96 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.52656</v>
+      </c>
+      <c r="N2">
+        <v>1.57968</v>
+      </c>
+      <c r="O2">
+        <v>0.9686255056421601</v>
+      </c>
+      <c r="P2">
+        <v>0.9686255056421602</v>
+      </c>
+      <c r="Q2">
+        <v>0.0160390176</v>
+      </c>
+      <c r="R2">
+        <v>0.1443511584</v>
+      </c>
+      <c r="S2">
+        <v>0.9686255056421601</v>
+      </c>
+      <c r="T2">
+        <v>0.9686255056421602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M2">
+      <c r="G3">
+        <v>0.03046</v>
+      </c>
+      <c r="H3">
+        <v>0.09138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
         <v>0.01705566666666667</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0.051167</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="O3">
+        <v>0.03137449435783982</v>
+      </c>
+      <c r="P3">
+        <v>0.03137449435783982</v>
+      </c>
+      <c r="Q3">
         <v>0.0005195156066666667</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>0.00467564046</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="S3">
+        <v>0.03137449435783982</v>
+      </c>
+      <c r="T3">
+        <v>0.03137449435783982</v>
       </c>
     </row>
   </sheetData>
